--- a/rp/Excel/Tab3_三级页签.xlsx
+++ b/rp/Excel/Tab3_三级页签.xlsx
@@ -43,7 +43,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -425,29 +425,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="14"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row r="1">
       <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
@@ -474,8 +475,9 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="2">
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -502,8 +504,9 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="3">
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -524,8 +527,9 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="4">
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="str">
@@ -548,8 +552,9 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="5">
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -576,8 +581,9 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="6">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -604,8 +610,9 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="7">
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -632,8 +639,9 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="8">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -660,8 +668,9 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="9">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -688,8 +697,9 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="10">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -716,8 +726,9 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="11">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -744,8 +755,9 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="12">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -772,8 +784,9 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="13">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -800,8 +813,9 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="14">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -828,8 +842,9 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="15">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
@@ -856,8 +871,9 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
@@ -884,8 +900,9 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
@@ -912,8 +929,9 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="18">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
@@ -940,8 +958,9 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="19">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
@@ -968,8 +987,9 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="20">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
@@ -996,8 +1016,9 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="21">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
@@ -1024,8 +1045,9 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="22">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
@@ -1052,8 +1074,9 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="23">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
@@ -1080,8 +1103,9 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="24">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
@@ -1108,8 +1132,9 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="25">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25">
       <c r="A25" s="2">
         <v>2001</v>
       </c>
@@ -1136,8 +1161,9 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="26">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26">
       <c r="A26" s="2">
         <v>2002</v>
       </c>
@@ -1164,8 +1190,9 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="27">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27">
       <c r="A27" s="2">
         <v>2003</v>
       </c>
@@ -1192,8 +1219,9 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="28">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28">
       <c r="A28" s="2">
         <v>2004</v>
       </c>
@@ -1220,8 +1248,9 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="29">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29">
       <c r="A29" s="2">
         <v>2005</v>
       </c>
@@ -1248,8 +1277,9 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="30">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30">
       <c r="A30" s="2">
         <v>2006</v>
       </c>
@@ -1276,8 +1306,9 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="31">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31">
       <c r="A31" s="2">
         <v>2007</v>
       </c>
@@ -1304,8 +1335,9 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="32">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32">
       <c r="A32" s="2">
         <v>2008</v>
       </c>
@@ -1332,8 +1364,9 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="33">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33">
       <c r="A33" s="2">
         <v>2009</v>
       </c>
@@ -1360,8 +1393,9 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="34">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34">
       <c r="A34" s="2">
         <v>2010</v>
       </c>
@@ -1388,8 +1422,9 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="35">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35">
       <c r="A35" s="2">
         <v>2011</v>
       </c>
@@ -1416,8 +1451,9 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="36">
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36">
       <c r="A36" s="2">
         <v>2012</v>
       </c>
@@ -1444,8 +1480,9 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="37">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37">
       <c r="A37" s="2">
         <v>2013</v>
       </c>
@@ -1472,8 +1509,9 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="38">
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38">
       <c r="A38" s="2">
         <v>2014</v>
       </c>
@@ -1500,8 +1538,9 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="39">
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39">
       <c r="A39" s="2">
         <v>2015</v>
       </c>
@@ -1528,8 +1567,9 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="40">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40">
       <c r="A40" s="2">
         <v>2016</v>
       </c>
@@ -1556,8 +1596,9 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="41">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41">
       <c r="A41" s="2">
         <v>2017</v>
       </c>
@@ -1584,8 +1625,9 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="42">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42">
       <c r="A42" s="2">
         <v>2018</v>
       </c>
@@ -1612,8 +1654,9 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="43">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43">
       <c r="A43" s="2">
         <v>2019</v>
       </c>
@@ -1640,8 +1683,9 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="44">
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44">
       <c r="A44" s="2">
         <v>2020</v>
       </c>
@@ -1668,8 +1712,3690 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+      <c r="U189" s="1"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+      <c r="U190" s="1"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/Tab3_三级页签.xlsx
+++ b/rp/Excel/Tab3_三级页签.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,18 +27,730 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>瞳孔样式</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1001</t>
+  </si>
+  <si>
+    <t>瞳孔贴画</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1002</t>
+  </si>
+  <si>
+    <t>上高光</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1003</t>
+  </si>
+  <si>
+    <t>下高光</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1004</t>
+  </si>
+  <si>
+    <t>睫毛</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1005</t>
+  </si>
+  <si>
+    <t>眼影</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1006</t>
+  </si>
+  <si>
+    <t>腮红</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1007</t>
+  </si>
+  <si>
+    <t>口红</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1008</t>
+  </si>
+  <si>
+    <t>面部彩绘</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1009</t>
+  </si>
+  <si>
+    <t>整体发型</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1010</t>
+  </si>
+  <si>
+    <t>前发</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1011</t>
+  </si>
+  <si>
+    <t>后发</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1012</t>
+  </si>
+  <si>
+    <t>左手</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1013</t>
+  </si>
+  <si>
+    <t>右手</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1014</t>
+  </si>
+  <si>
+    <t>背饰</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1015</t>
+  </si>
+  <si>
+    <t>耳饰</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1016</t>
+  </si>
+  <si>
+    <t>面饰</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1017</t>
+  </si>
+  <si>
+    <t>臀部</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1018</t>
+  </si>
+  <si>
+    <t>肩部</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1019</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1020</t>
+  </si>
+  <si>
+    <t>拖尾</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1021</t>
+  </si>
+  <si>
+    <t>日常造型1</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1022</t>
+  </si>
+  <si>
+    <t>布偶造型</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1023</t>
+  </si>
+  <si>
+    <t>英雄造型</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1024</t>
+  </si>
+  <si>
+    <t>幻想造型</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1025</t>
+  </si>
+  <si>
+    <t>节日造型</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1026</t>
+  </si>
+  <si>
+    <t>科幻造型</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1027</t>
+  </si>
+  <si>
+    <t>古代造型</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1028</t>
+  </si>
+  <si>
+    <t>长单件</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1029</t>
+  </si>
+  <si>
+    <t>短外套</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1030</t>
+  </si>
+  <si>
+    <t>短单件</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1031</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1032</t>
+  </si>
+  <si>
+    <t>长外套</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1033</t>
+  </si>
+  <si>
+    <t>短裙</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1034</t>
+  </si>
+  <si>
+    <t>长裤</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1035</t>
+  </si>
+  <si>
+    <t>短裤</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1036</t>
+  </si>
+  <si>
+    <t>长裙</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1037</t>
+  </si>
+  <si>
+    <t>裤袜</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1038</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1039</t>
+  </si>
+  <si>
+    <t>手套饰品</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1040</t>
+  </si>
+  <si>
+    <t>日常鞋</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1041</t>
+  </si>
+  <si>
+    <t>靴子</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1042</t>
+  </si>
+  <si>
+    <t>足套</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1043</t>
+  </si>
+  <si>
+    <t>裸饰</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1044</t>
+  </si>
+  <si>
+    <t>高跟鞋</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1045</t>
+  </si>
+  <si>
+    <t>运动鞋</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1046</t>
+  </si>
+  <si>
+    <t>日常造型2</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1047</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瞳孔样式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瞳孔贴花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上高光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下高光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睫毛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>眼影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>腮红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>口红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面部彩绘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体发型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2012</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>右手</t>
     </r>
@@ -45,7 +759,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -54,28 +768,30 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>收藏</t>
     </r>
   </si>
   <si>
-    <t/>
+    <t>Text_Tab3_2014</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>后发</t>
+      <t>背饰</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -84,19 +800,181 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>收藏</t>
     </r>
   </si>
   <si>
-    <t/>
+    <t>Text_Tab3_2015</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耳饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2017</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>臀部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肩部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_Tab3_2020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
       </rPr>
       <t>拖尾</t>
     </r>
@@ -105,7 +983,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -114,547 +992,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>眼影</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>上高光</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>睫毛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>面部彩绘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>腮红</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>左手</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>特效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>背饰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>瞳孔样式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>臀部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>耳饰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>肩部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>瞳孔贴花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>前发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>口红</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>下高光</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>整体发型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>收藏</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>面饰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>收藏</t>
     </r>
@@ -663,42 +1001,381 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -707,45 +1384,317 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="165" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,7 +1743,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -827,26 +1776,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -879,23 +1811,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1037,59 +1952,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T272"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="13"/>
+    <col min="1" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="20" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="1" t="str">
-        <v>Int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>String</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>String</v>
+    <row r="1" ht="21" customHeight="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1109,15 +2001,15 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Describe</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>Text</v>
+    <row r="2" ht="21" customHeight="1" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1137,7 +2029,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row r="3" ht="21" customHeight="1" spans="1:20">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1159,11 +2051,11 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row r="4" ht="21" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="str">
-        <v>Language</v>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1183,15 +2075,15 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row r="5" ht="21" customHeight="1" spans="1:20">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>瞳孔样式</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <v>Text_Tab3_1001</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
@@ -1211,15 +2103,15 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row r="6" ht="21" customHeight="1" spans="1:20">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>瞳孔贴画</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <v>Text_Tab3_1002</v>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -1239,15 +2131,15 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row r="7" ht="21" customHeight="1" spans="1:20">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>上高光</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>Text_Tab3_1003</v>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
@@ -1267,15 +2159,15 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row r="8" ht="21" customHeight="1" spans="1:20">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>下高光</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>Text_Tab3_1004</v>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1295,15 +2187,15 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row r="9" ht="21" customHeight="1" spans="1:20">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <v>睫毛</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <v>Text_Tab3_1005</v>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1323,15 +2215,15 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row r="10" ht="21" customHeight="1" spans="1:20">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <v>眼影</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>Text_Tab3_1006</v>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1351,15 +2243,15 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row r="11" ht="21" customHeight="1" spans="1:20">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>腮红</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <v>Text_Tab3_1007</v>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1379,15 +2271,15 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row r="12" ht="21" customHeight="1" spans="1:20">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <v>口红</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <v>Text_Tab3_1008</v>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1407,15 +2299,15 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row r="13" ht="21" customHeight="1" spans="1:20">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <v>面部彩绘</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <v>Text_Tab3_1009</v>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1435,15 +2327,15 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row r="14" ht="21" customHeight="1" spans="1:20">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <v>整体发型</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>Text_Tab3_1010</v>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1463,15 +2355,15 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row r="15" ht="21" customHeight="1" spans="1:20">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <v>前发</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <v>Text_Tab3_1011</v>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1491,15 +2383,15 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row r="16" ht="21" customHeight="1" spans="1:20">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <v>后发</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <v>Text_Tab3_1012</v>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1519,15 +2411,15 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row r="17" ht="21" customHeight="1" spans="1:20">
       <c r="A17" s="2">
         <v>1013</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <v>左手</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <v>Text_Tab3_1013</v>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1547,15 +2439,15 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row r="18" ht="21" customHeight="1" spans="1:20">
       <c r="A18" s="2">
         <v>1014</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <v>右手</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <v>Text_Tab3_1014</v>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1575,15 +2467,15 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row r="19" ht="21" customHeight="1" spans="1:20">
       <c r="A19" s="2">
         <v>1015</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <v>背饰</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <v>Text_Tab3_1015</v>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1603,15 +2495,15 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row r="20" ht="21" customHeight="1" spans="1:20">
       <c r="A20" s="2">
         <v>1016</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <v>耳饰</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <v>Text_Tab3_1016</v>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1631,15 +2523,15 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row r="21" ht="21" customHeight="1" spans="1:20">
       <c r="A21" s="2">
         <v>1017</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <v>面饰</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <v>Text_Tab3_1017</v>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1659,15 +2551,15 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row r="22" ht="21" customHeight="1" spans="1:20">
       <c r="A22" s="2">
         <v>1018</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <v>臀部</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <v>Text_Tab3_1018</v>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1687,15 +2579,15 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row r="23" ht="21" customHeight="1" spans="1:20">
       <c r="A23" s="2">
         <v>1019</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <v>肩部</v>
-      </c>
-      <c r="C23" s="2" t="str">
-        <v>Text_Tab3_1019</v>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1715,15 +2607,15 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="24">
+    <row r="24" ht="15" customHeight="1" spans="1:20">
       <c r="A24" s="2">
         <v>1020</v>
       </c>
-      <c r="B24" s="2" t="str">
-        <v>特效</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <v>Text_Tab3_1020</v>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1743,15 +2635,15 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="25">
+    <row r="25" ht="15" customHeight="1" spans="1:20">
       <c r="A25" s="2">
         <v>1021</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <v>拖尾</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <v>Text_Tab3_1021</v>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1771,15 +2663,15 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="26">
+    <row r="26" ht="15" customHeight="1" spans="1:20">
       <c r="A26" s="2">
         <v>1022</v>
       </c>
-      <c r="B26" s="2" t="str">
-        <v>日常造型</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <v>Text_Tab3_1022</v>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1799,15 +2691,15 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="27">
+    <row r="27" ht="15" customHeight="1" spans="1:20">
       <c r="A27" s="2">
         <v>1023</v>
       </c>
-      <c r="B27" s="2" t="str">
-        <v>布偶造型</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <v>Text_Tab3_1023</v>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1827,15 +2719,15 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="28">
+    <row r="28" ht="15" customHeight="1" spans="1:20">
       <c r="A28" s="2">
         <v>1024</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <v>英雄造型</v>
-      </c>
-      <c r="C28" s="2" t="str">
-        <v>Text_Tab3_1024</v>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1855,15 +2747,15 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="29">
+    <row r="29" ht="15" customHeight="1" spans="1:20">
       <c r="A29" s="2">
         <v>1025</v>
       </c>
-      <c r="B29" s="2" t="str">
-        <v>幻想造型</v>
-      </c>
-      <c r="C29" s="2" t="str">
-        <v>Text_Tab3_1025</v>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1883,15 +2775,15 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="30">
+    <row r="30" ht="15" customHeight="1" spans="1:20">
       <c r="A30" s="2">
         <v>1026</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <v>节日造型</v>
-      </c>
-      <c r="C30" s="2" t="str">
-        <v>Text_Tab3_1026</v>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1911,15 +2803,15 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="31">
+    <row r="31" ht="15" customHeight="1" spans="1:20">
       <c r="A31" s="2">
         <v>1027</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <v>科幻造型</v>
-      </c>
-      <c r="C31" s="2" t="str">
-        <v>Text_Tab3_1027</v>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1939,15 +2831,15 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="15" r="32">
+    <row r="32" ht="15" customHeight="1" spans="1:20">
       <c r="A32" s="2">
         <v>1028</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <v>古代造型</v>
-      </c>
-      <c r="C32" s="2" t="str">
-        <v>Text_Tab3_1028</v>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1967,15 +2859,15 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row r="33" ht="21" customHeight="1" spans="1:20">
       <c r="A33" s="2">
-        <v>2001</v>
+        <v>1029</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <v>Text_Tab3_2001</v>
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1995,15 +2887,15 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row r="34" ht="21" customHeight="1" spans="1:20">
       <c r="A34" s="2">
-        <v>2002</v>
+        <v>1030</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <v>Text_Tab3_2002</v>
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2023,15 +2915,15 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row r="35" ht="21" customHeight="1" spans="1:20">
       <c r="A35" s="2">
-        <v>2003</v>
+        <v>1031</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="str">
-        <v>Text_Tab3_2003</v>
+        <v>66</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2051,15 +2943,15 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
+    <row r="36" ht="21" customHeight="1" spans="1:20">
       <c r="A36" s="2">
-        <v>2004</v>
+        <v>1032</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="2" t="str">
-        <v>Text_Tab3_2004</v>
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2079,15 +2971,15 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
+    <row r="37" ht="21" customHeight="1" spans="1:20">
       <c r="A37" s="2">
-        <v>2005</v>
+        <v>1033</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="str">
-        <v>Text_Tab3_2005</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2107,15 +2999,15 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row r="38" ht="21" customHeight="1" spans="1:20">
       <c r="A38" s="2">
-        <v>2006</v>
+        <v>1034</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="str">
-        <v>Text_Tab3_2006</v>
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2135,15 +3027,15 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row r="39" ht="21" customHeight="1" spans="1:20">
       <c r="A39" s="2">
-        <v>2007</v>
+        <v>1035</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2" t="str">
-        <v>Text_Tab3_2007</v>
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2163,15 +3055,15 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row r="40" ht="21" customHeight="1" spans="1:20">
       <c r="A40" s="2">
-        <v>2008</v>
+        <v>1036</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2" t="str">
-        <v>Text_Tab3_2008</v>
+        <v>76</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2191,15 +3083,15 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row r="41" ht="21" customHeight="1" spans="1:20">
       <c r="A41" s="2">
-        <v>2009</v>
+        <v>1037</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2" t="str">
-        <v>Text_Tab3_2009</v>
+        <v>78</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2219,15 +3111,15 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row r="42" ht="21" customHeight="1" spans="1:20">
       <c r="A42" s="2">
-        <v>2010</v>
+        <v>1038</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <v>Text_Tab3_2010</v>
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2247,15 +3139,15 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row r="43" ht="21" customHeight="1" spans="1:20">
       <c r="A43" s="2">
-        <v>2011</v>
+        <v>1039</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <v>Text_Tab3_2011</v>
+        <v>82</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2275,15 +3167,15 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row r="44" ht="21" customHeight="1" spans="1:20">
       <c r="A44" s="2">
-        <v>2012</v>
+        <v>1040</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2" t="str">
-        <v>Text_Tab3_2012</v>
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2303,15 +3195,15 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row r="45" ht="21" customHeight="1" spans="1:20">
       <c r="A45" s="2">
-        <v>2013</v>
+        <v>1041</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2" t="str">
-        <v>Text_Tab3_2013</v>
+        <v>86</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2331,15 +3223,15 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row r="46" ht="21" customHeight="1" spans="1:20">
       <c r="A46" s="2">
-        <v>2014</v>
+        <v>1042</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="str">
-        <v>Text_Tab3_2014</v>
+        <v>88</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2359,15 +3251,15 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row r="47" ht="21" customHeight="1" spans="1:20">
       <c r="A47" s="2">
-        <v>2015</v>
+        <v>1043</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="2" t="str">
-        <v>Text_Tab3_2015</v>
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2387,15 +3279,15 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row r="48" ht="21" customHeight="1" spans="1:20">
       <c r="A48" s="2">
-        <v>2016</v>
+        <v>1044</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="2" t="str">
-        <v>Text_Tab3_2016</v>
+        <v>92</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2415,15 +3307,15 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row r="49" ht="21" customHeight="1" spans="1:20">
       <c r="A49" s="2">
-        <v>2017</v>
+        <v>1045</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2" t="str">
-        <v>Text_Tab3_2017</v>
+        <v>94</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2443,15 +3335,15 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row r="50" ht="21" customHeight="1" spans="1:20">
       <c r="A50" s="2">
-        <v>2018</v>
+        <v>1046</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="2" t="str">
-        <v>Text_Tab3_2018</v>
+        <v>96</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2471,15 +3363,15 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row r="51" ht="21" customHeight="1" spans="1:20">
       <c r="A51" s="2">
-        <v>2019</v>
+        <v>1047</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="2" t="str">
-        <v>Text_Tab3_2019</v>
+        <v>98</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2499,15 +3391,15 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row r="52" ht="21" customHeight="1" spans="1:20">
       <c r="A52" s="2">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="2" t="str">
-        <v>Text_Tab3_2020</v>
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2527,15 +3419,15 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row customHeight="true" ht="16" r="53">
-      <c r="A53" s="1">
-        <v>2021</v>
+    <row r="53" ht="21" customHeight="1" spans="1:20">
+      <c r="A53" s="2">
+        <v>2002</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="2" t="str">
-        <v>Text_Tab3_1021</v>
+        <v>102</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2555,10 +3447,16 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+    <row r="54" ht="21" customHeight="1" spans="1:20">
+      <c r="A54" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2577,10 +3475,16 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+    <row r="55" ht="21" customHeight="1" spans="1:20">
+      <c r="A55" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2599,10 +3503,16 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+    <row r="56" ht="21" customHeight="1" spans="1:20">
+      <c r="A56" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2621,10 +3531,16 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+    <row r="57" ht="21" customHeight="1" spans="1:20">
+      <c r="A57" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2643,10 +3559,16 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+    <row r="58" ht="21" customHeight="1" spans="1:20">
+      <c r="A58" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2665,10 +3587,16 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+    <row r="59" ht="21" customHeight="1" spans="1:20">
+      <c r="A59" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2687,10 +3615,16 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+    <row r="60" ht="21" customHeight="1" spans="1:20">
+      <c r="A60" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2709,10 +3643,16 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+    <row r="61" ht="21" customHeight="1" spans="1:20">
+      <c r="A61" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2731,10 +3671,16 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+    <row r="62" ht="21" customHeight="1" spans="1:20">
+      <c r="A62" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2753,10 +3699,16 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+    <row r="63" ht="21" customHeight="1" spans="1:20">
+      <c r="A63" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2775,10 +3727,16 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+    <row r="64" ht="21" customHeight="1" spans="1:20">
+      <c r="A64" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2797,10 +3755,16 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+    <row r="65" ht="21" customHeight="1" spans="1:20">
+      <c r="A65" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2819,10 +3783,16 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+    <row r="66" ht="21" customHeight="1" spans="1:20">
+      <c r="A66" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2841,10 +3811,16 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+    <row r="67" ht="21" customHeight="1" spans="1:20">
+      <c r="A67" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2863,10 +3839,16 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+    <row r="68" ht="21" customHeight="1" spans="1:20">
+      <c r="A68" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2885,10 +3867,16 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+    <row r="69" ht="21" customHeight="1" spans="1:20">
+      <c r="A69" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2907,10 +3895,16 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+    <row r="70" ht="21" customHeight="1" spans="1:20">
+      <c r="A70" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -2929,10 +3923,16 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+    <row r="71" ht="21" customHeight="1" spans="1:20">
+      <c r="A71" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -2951,10 +3951,16 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+    <row r="72" ht="16" customHeight="1" spans="1:20">
+      <c r="A72" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -2973,7 +3979,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2995,7 +4001,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3017,7 +4023,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3039,7 +4045,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3061,7 +4067,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3083,7 +4089,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3105,7 +4111,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3127,7 +4133,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3149,7 +4155,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3171,7 +4177,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3193,7 +4199,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3215,7 +4221,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3237,7 +4243,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3259,7 +4265,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3281,7 +4287,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3303,7 +4309,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3325,7 +4331,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3347,7 +4353,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3369,7 +4375,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3391,7 +4397,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3413,7 +4419,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3435,7 +4441,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3457,7 +4463,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3479,7 +4485,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3501,7 +4507,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3523,7 +4529,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3545,7 +4551,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3567,7 +4573,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3589,7 +4595,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3611,7 +4617,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3633,7 +4639,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3655,7 +4661,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3677,7 +4683,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3699,7 +4705,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3721,7 +4727,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3743,7 +4749,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3765,7 +4771,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3787,7 +4793,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3809,7 +4815,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3831,7 +4837,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3853,7 +4859,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3875,7 +4881,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3897,7 +4903,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3919,7 +4925,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3941,7 +4947,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3963,7 +4969,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3985,7 +4991,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4007,7 +5013,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4029,7 +5035,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4051,7 +5057,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4073,7 +5079,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4095,7 +5101,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4117,7 +5123,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4139,7 +5145,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4161,7 +5167,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4183,7 +5189,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4205,7 +5211,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4227,7 +5233,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4249,7 +5255,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4271,7 +5277,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4293,7 +5299,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4315,7 +5321,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4337,7 +5343,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4359,7 +5365,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4381,7 +5387,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4403,7 +5409,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4425,7 +5431,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4447,7 +5453,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4469,7 +5475,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4491,7 +5497,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4513,7 +5519,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4535,7 +5541,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4557,7 +5563,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4579,7 +5585,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4601,7 +5607,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4623,7 +5629,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4645,7 +5651,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4667,7 +5673,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4689,7 +5695,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4711,7 +5717,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4733,7 +5739,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4755,7 +5761,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4777,7 +5783,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4799,7 +5805,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4821,7 +5827,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4843,7 +5849,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4865,7 +5871,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4887,7 +5893,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4909,7 +5915,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4931,7 +5937,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4953,7 +5959,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4975,7 +5981,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4997,7 +6003,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5019,7 +6025,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5041,7 +6047,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5063,7 +6069,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5085,7 +6091,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5107,7 +6113,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5129,7 +6135,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5151,7 +6157,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5173,7 +6179,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5195,7 +6201,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5217,7 +6223,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5239,7 +6245,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5261,7 +6267,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5283,7 +6289,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5305,7 +6311,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5327,7 +6333,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5349,7 +6355,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5371,7 +6377,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5393,7 +6399,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5415,7 +6421,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5437,7 +6443,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5459,7 +6465,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5481,7 +6487,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5503,7 +6509,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5525,7 +6531,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5547,7 +6553,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5569,7 +6575,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5591,7 +6597,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5613,7 +6619,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5635,7 +6641,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5657,7 +6663,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5679,7 +6685,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5701,7 +6707,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5723,7 +6729,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5745,7 +6751,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -5767,7 +6773,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -5789,7 +6795,7 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:20">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -5811,7 +6817,7 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:20">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -5833,7 +6839,7 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:20">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -5855,7 +6861,7 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:20">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -5877,7 +6883,7 @@
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:20">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -5899,7 +6905,7 @@
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:20">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -5921,7 +6927,7 @@
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:20">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -5943,7 +6949,7 @@
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:20">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -5965,7 +6971,7 @@
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:20">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -5987,7 +6993,7 @@
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:20">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6009,7 +7015,7 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:20">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6031,7 +7037,7 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:20">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6053,7 +7059,7 @@
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:20">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6075,7 +7081,7 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:20">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6097,7 +7103,7 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:20">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6119,7 +7125,7 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:20">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6141,7 +7147,7 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:20">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6163,7 +7169,7 @@
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:20">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6185,7 +7191,7 @@
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:20">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6207,7 +7213,7 @@
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:20">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6229,7 +7235,7 @@
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:20">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6251,7 +7257,7 @@
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:20">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6273,7 +7279,7 @@
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:20">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6295,7 +7301,7 @@
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:20">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6317,7 +7323,7 @@
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:20">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6339,7 +7345,7 @@
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:20">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6361,7 +7367,7 @@
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:20">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6383,7 +7389,7 @@
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:20">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6405,7 +7411,7 @@
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:20">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6427,7 +7433,7 @@
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:20">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6449,7 +7455,7 @@
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:20">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6471,7 +7477,7 @@
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:20">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6493,7 +7499,7 @@
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:20">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6515,7 +7521,7 @@
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:20">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6537,7 +7543,7 @@
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:20">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6559,7 +7565,7 @@
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:20">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6581,7 +7587,7 @@
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:20">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6603,7 +7609,7 @@
       <c r="S237" s="1"/>
       <c r="T237" s="1"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:20">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6625,7 +7631,7 @@
       <c r="S238" s="1"/>
       <c r="T238" s="1"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:20">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -6647,7 +7653,7 @@
       <c r="S239" s="1"/>
       <c r="T239" s="1"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:20">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -6669,7 +7675,7 @@
       <c r="S240" s="1"/>
       <c r="T240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:20">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -6691,7 +7697,7 @@
       <c r="S241" s="1"/>
       <c r="T241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:20">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -6713,7 +7719,7 @@
       <c r="S242" s="1"/>
       <c r="T242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:20">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -6735,7 +7741,7 @@
       <c r="S243" s="1"/>
       <c r="T243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:20">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -6757,7 +7763,7 @@
       <c r="S244" s="1"/>
       <c r="T244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:20">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -6779,7 +7785,7 @@
       <c r="S245" s="1"/>
       <c r="T245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:20">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -6801,7 +7807,7 @@
       <c r="S246" s="1"/>
       <c r="T246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:20">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -6823,7 +7829,7 @@
       <c r="S247" s="1"/>
       <c r="T247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:20">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -6845,7 +7851,7 @@
       <c r="S248" s="1"/>
       <c r="T248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:20">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -6867,7 +7873,7 @@
       <c r="S249" s="1"/>
       <c r="T249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:20">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -6889,7 +7895,7 @@
       <c r="S250" s="1"/>
       <c r="T250" s="1"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:20">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -6911,7 +7917,7 @@
       <c r="S251" s="1"/>
       <c r="T251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:20">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -6933,7 +7939,7 @@
       <c r="S252" s="1"/>
       <c r="T252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:20">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -6955,7 +7961,426 @@
       <c r="S253" s="1"/>
       <c r="T253" s="1"/>
     </row>
+    <row r="254" spans="1:20">
+      <c r="A254" s="1"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+    </row>
+    <row r="255" spans="1:20">
+      <c r="A255" s="1"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+    </row>
+    <row r="256" spans="1:20">
+      <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
+    </row>
+    <row r="257" spans="1:20">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
+    </row>
+    <row r="258" spans="1:20">
+      <c r="A258" s="1"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+    </row>
+    <row r="259" spans="1:20">
+      <c r="A259" s="1"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+    </row>
+    <row r="260" spans="1:20">
+      <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+    </row>
+    <row r="261" spans="1:20">
+      <c r="A261" s="1"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+    </row>
+    <row r="262" spans="1:20">
+      <c r="A262" s="1"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+    </row>
+    <row r="263" spans="1:20">
+      <c r="A263" s="1"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+    </row>
+    <row r="264" spans="1:20">
+      <c r="A264" s="1"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+    </row>
+    <row r="265" spans="1:20">
+      <c r="A265" s="1"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+    </row>
+    <row r="266" spans="1:20">
+      <c r="A266" s="1"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
+    </row>
+    <row r="267" spans="1:20">
+      <c r="A267" s="1"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
+    </row>
+    <row r="268" spans="1:20">
+      <c r="A268" s="1"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="T268" s="1"/>
+    </row>
+    <row r="269" spans="1:20">
+      <c r="A269" s="1"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="Q269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="T269" s="1"/>
+    </row>
+    <row r="270" spans="1:20">
+      <c r="A270" s="1"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
+    </row>
+    <row r="271" spans="1:20">
+      <c r="A271" s="1"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
+    </row>
+    <row r="272" spans="1:20">
+      <c r="A272" s="1"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/rp/Excel/Tab3_三级页签.xlsx
+++ b/rp/Excel/Tab3_三级页签.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>Int</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>Text_Tab3_1047</t>
+  </si>
+  <si>
+    <t>灵宠</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1048</t>
   </si>
   <si>
     <r>
@@ -1960,10 +1966,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T272"/>
+  <dimension ref="A1:T273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -3393,7 +3399,7 @@
     </row>
     <row r="52" ht="21" customHeight="1" spans="1:20">
       <c r="A52" s="2">
-        <v>2001</v>
+        <v>1048</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>100</v>
@@ -3421,7 +3427,7 @@
     </row>
     <row r="53" ht="21" customHeight="1" spans="1:20">
       <c r="A53" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>102</v>
@@ -3449,7 +3455,7 @@
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:20">
       <c r="A54" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>104</v>
@@ -3477,7 +3483,7 @@
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:20">
       <c r="A55" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>106</v>
@@ -3505,7 +3511,7 @@
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:20">
       <c r="A56" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>108</v>
@@ -3533,7 +3539,7 @@
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:20">
       <c r="A57" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>110</v>
@@ -3561,7 +3567,7 @@
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:20">
       <c r="A58" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>112</v>
@@ -3589,7 +3595,7 @@
     </row>
     <row r="59" ht="21" customHeight="1" spans="1:20">
       <c r="A59" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>114</v>
@@ -3617,7 +3623,7 @@
     </row>
     <row r="60" ht="21" customHeight="1" spans="1:20">
       <c r="A60" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>116</v>
@@ -3645,7 +3651,7 @@
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:20">
       <c r="A61" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>118</v>
@@ -3673,7 +3679,7 @@
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:20">
       <c r="A62" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>120</v>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="63" ht="21" customHeight="1" spans="1:20">
       <c r="A63" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>122</v>
@@ -3729,7 +3735,7 @@
     </row>
     <row r="64" ht="21" customHeight="1" spans="1:20">
       <c r="A64" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>124</v>
@@ -3757,7 +3763,7 @@
     </row>
     <row r="65" ht="21" customHeight="1" spans="1:20">
       <c r="A65" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>126</v>
@@ -3785,7 +3791,7 @@
     </row>
     <row r="66" ht="21" customHeight="1" spans="1:20">
       <c r="A66" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>128</v>
@@ -3813,7 +3819,7 @@
     </row>
     <row r="67" ht="21" customHeight="1" spans="1:20">
       <c r="A67" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>130</v>
@@ -3841,7 +3847,7 @@
     </row>
     <row r="68" ht="21" customHeight="1" spans="1:20">
       <c r="A68" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>132</v>
@@ -3869,7 +3875,7 @@
     </row>
     <row r="69" ht="21" customHeight="1" spans="1:20">
       <c r="A69" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>134</v>
@@ -3897,7 +3903,7 @@
     </row>
     <row r="70" ht="21" customHeight="1" spans="1:20">
       <c r="A70" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>136</v>
@@ -3925,7 +3931,7 @@
     </row>
     <row r="71" ht="21" customHeight="1" spans="1:20">
       <c r="A71" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>138</v>
@@ -3951,15 +3957,15 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" ht="16" customHeight="1" spans="1:20">
-      <c r="A72" s="1">
-        <v>2021</v>
+    <row r="72" ht="21" customHeight="1" spans="1:20">
+      <c r="A72" s="2">
+        <v>2020</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3979,10 +3985,16 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+    <row r="73" ht="16" customHeight="1" spans="1:20">
+      <c r="A73" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8379,6 +8391,28 @@
       <c r="S272" s="1"/>
       <c r="T272" s="1"/>
     </row>
+    <row r="273" spans="1:20">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+      <c r="Q273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
